--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
   <si>
     <t>TCID</t>
   </si>
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -610,7 +610,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -624,7 +624,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -155,28 +155,31 @@
     <t>Y</t>
   </si>
   <si>
+    <t>TestCase_F1</t>
+  </si>
+  <si>
+    <t>To verify that user receives a notification when he is followed by someone</t>
+  </si>
+  <si>
+    <t>TestCase_F2</t>
+  </si>
+  <si>
+    <t>To verify that user receives a notification when someone he is following comments on an article</t>
+  </si>
+  <si>
+    <t>TestCase_F3</t>
+  </si>
+  <si>
+    <t>To verify that user receives a notification when someone comments on an article contained in his watchlist</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>TestCase_F1</t>
-  </si>
-  <si>
-    <t>To verify that user receives a notification when he is followed by someone</t>
-  </si>
-  <si>
-    <t>TestCase_F2</t>
-  </si>
-  <si>
-    <t>To verify that user receives a notification when someone he is following comments on an article</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>TestCase_F3</t>
-  </si>
-  <si>
-    <t>To verify that user receives a notification when someone comments on an article contained in his watchlist</t>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -559,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -587,44 +590,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>TCID</t>
   </si>
@@ -176,17 +176,13 @@
     <t>SKIP</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -563,15 +559,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -596,7 +592,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>37</v>
@@ -646,10 +642,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -559,7 +559,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -620,7 +620,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>TCID</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>SKIP</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -559,7 +556,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -592,7 +589,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>37</v>
@@ -620,7 +617,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <t>TCID</t>
   </si>
@@ -175,11 +175,21 @@
   <si>
     <t>SKIP</t>
   </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -556,15 +566,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -589,7 +599,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>37</v>
@@ -606,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -617,7 +627,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>
@@ -639,10 +649,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="41">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>TCID</t>
   </si>
@@ -175,21 +175,11 @@
   <si>
     <t>SKIP</t>
   </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -566,15 +556,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -599,7 +589,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>37</v>
@@ -616,7 +606,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -627,7 +617,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>
@@ -649,10 +639,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="39">
   <si>
     <t>TCID</t>
   </si>
@@ -175,11 +175,15 @@
   <si>
     <t>SKIP</t>
   </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -561,10 +565,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -639,10 +643,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -596,7 +599,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -610,7 +613,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -624,7 +627,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -599,7 +599,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -613,7 +613,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -627,7 +627,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="42">
   <si>
     <t>TCID</t>
   </si>
@@ -173,13 +173,19 @@
     <t>To verify that user receives a notification when someone comments on an article contained in his watchlist</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>TestCase_F4</t>
+  </si>
+  <si>
+    <t>To verify that user receives a notification if someone likes his comment</t>
+  </si>
+  <si>
     <t>SKIP</t>
   </si>
   <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -245,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -261,6 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,9 +567,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -599,7 +606,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -613,7 +620,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -627,7 +634,21 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="42">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="42">
   <si>
     <t>TCID</t>
   </si>
@@ -606,7 +606,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -620,7 +620,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -634,7 +634,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -648,7 +648,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>TCID</t>
   </si>
@@ -182,17 +182,13 @@
     <t>To verify that user receives a notification if someone likes his comment</t>
   </si>
   <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -570,15 +566,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -617,7 +613,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>37</v>
@@ -631,7 +627,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>
@@ -645,7 +641,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>37</v>
@@ -667,10 +663,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>TCID</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>SKIP</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -613,10 +616,10 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -630,7 +633,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -644,7 +647,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>TCID</t>
   </si>
@@ -180,9 +180,6 @@
   </si>
   <si>
     <t>To verify that user receives a notification if someone likes his comment</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>SKIP</t>
@@ -569,7 +566,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -619,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -630,10 +627,10 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -644,10 +641,10 @@
         <v>39</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>TCID</t>
   </si>
@@ -173,20 +173,22 @@
     <t>To verify that user receives a notification when someone comments on an article contained in his watchlist</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>TestCase_F4</t>
+  </si>
+  <si>
+    <t>To verify that user receives a notification if someone likes his comment</t>
+  </si>
+  <si>
     <t>SKIP</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -245,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -261,6 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,18 +563,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -613,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -627,7 +630,21 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -646,10 +663,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>TCID</t>
   </si>
@@ -189,6 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -571,10 +572,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -602,7 +603,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -663,10 +664,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>TCID</t>
   </si>
@@ -173,9 +173,6 @@
     <t>To verify that user receives a notification when someone comments on an article contained in his watchlist</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>TestCase_F4</t>
   </si>
   <si>
@@ -183,6 +180,12 @@
   </si>
   <si>
     <t>SKIP</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -614,10 +617,10 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -628,24 +631,24 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -181,18 +181,11 @@
   <si>
     <t>SKIP</t>
   </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -570,15 +563,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -617,7 +610,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>39</v>
@@ -631,7 +624,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>39</v>
@@ -645,7 +638,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>39</v>
@@ -667,10 +660,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -181,18 +181,11 @@
   <si>
     <t>SKIP</t>
   </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -570,15 +563,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -617,7 +610,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>39</v>
@@ -631,7 +624,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>39</v>
@@ -645,7 +638,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>39</v>
@@ -667,10 +660,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -186,6 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -568,10 +569,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -660,10 +661,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -186,6 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -568,10 +569,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -660,10 +661,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="5385"/>
+    <workbookView xWindow="4230" yWindow="3960" windowWidth="14400" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>
@@ -152,41 +152,55 @@
 2)Click on NOTES tab and verify that NOTES tab gets displayed with all the notes(if present).</t>
   </si>
   <si>
+    <t>TestCase_F1</t>
+  </si>
+  <si>
+    <t>TestCase_F2</t>
+  </si>
+  <si>
+    <t>TestCase_F3</t>
+  </si>
+  <si>
+    <t>TestCase_F4</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when he is followed by someone</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following comments on an article</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone comments on an article contained in his watchlist</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification if someone likes his comment</t>
+  </si>
+  <si>
+    <t>Jira id</t>
+  </si>
+  <si>
+    <t>OPQA-206</t>
+  </si>
+  <si>
+    <t>OPQA-207</t>
+  </si>
+  <si>
+    <t>OPQA-208</t>
+  </si>
+  <si>
+    <t>OPQA-209</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>TestCase_F1</t>
-  </si>
-  <si>
-    <t>To verify that user receives a notification when he is followed by someone</t>
-  </si>
-  <si>
-    <t>TestCase_F2</t>
-  </si>
-  <si>
-    <t>To verify that user receives a notification when someone he is following comments on an article</t>
-  </si>
-  <si>
-    <t>TestCase_F3</t>
-  </si>
-  <si>
-    <t>To verify that user receives a notification when someone comments on an article contained in his watchlist</t>
-  </si>
-  <si>
-    <t>TestCase_F4</t>
-  </si>
-  <si>
-    <t>To verify that user receives a notification if someone likes his comment</t>
-  </si>
-  <si>
-    <t>SKIP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -561,88 +575,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -661,10 +690,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>
@@ -201,6 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -583,10 +584,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -690,10 +691,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>
@@ -201,6 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -583,10 +584,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -690,10 +691,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="5385"/>
+    <workbookView xWindow="4230" yWindow="3960" windowWidth="14400" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>
@@ -152,34 +152,49 @@
 2)Click on NOTES tab and verify that NOTES tab gets displayed with all the notes(if present).</t>
   </si>
   <si>
+    <t>TestCase_F1</t>
+  </si>
+  <si>
+    <t>TestCase_F2</t>
+  </si>
+  <si>
+    <t>TestCase_F3</t>
+  </si>
+  <si>
+    <t>TestCase_F4</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when he is followed by someone</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following comments on an article</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone comments on an article contained in his watchlist</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification if someone likes his comment</t>
+  </si>
+  <si>
+    <t>Jira id</t>
+  </si>
+  <si>
+    <t>OPQA-206</t>
+  </si>
+  <si>
+    <t>OPQA-207</t>
+  </si>
+  <si>
+    <t>OPQA-208</t>
+  </si>
+  <si>
+    <t>OPQA-209</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>TestCase_F1</t>
-  </si>
-  <si>
-    <t>To verify that user receives a notification when he is followed by someone</t>
-  </si>
-  <si>
-    <t>TestCase_F2</t>
-  </si>
-  <si>
-    <t>To verify that user receives a notification when someone he is following comments on an article</t>
-  </si>
-  <si>
-    <t>TestCase_F3</t>
-  </si>
-  <si>
-    <t>To verify that user receives a notification when someone comments on an article contained in his watchlist</t>
-  </si>
-  <si>
-    <t>TestCase_F4</t>
-  </si>
-  <si>
-    <t>To verify that user receives a notification if someone likes his comment</t>
-  </si>
-  <si>
-    <t>SKIP</t>
   </si>
 </sst>
 </file>
@@ -561,88 +576,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>
@@ -201,6 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -583,10 +584,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -690,10 +691,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>TCID</t>
   </si>
@@ -191,17 +191,25 @@
     <t>OPQA-209</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TestCase_F5</t>
+  </si>
+  <si>
+    <t>OPQA-877</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following  publishes a post</t>
+  </si>
+  <si>
     <t>SKIP</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -576,18 +584,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -618,10 +626,10 @@
         <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -635,10 +643,10 @@
         <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -652,10 +660,10 @@
         <v>36</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -669,10 +677,27 @@
         <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="B6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>43</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -691,10 +716,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>TCID</t>
   </si>
@@ -170,40 +170,61 @@
     <t>Verify that user receives a notification when someone he is following comments on an article</t>
   </si>
   <si>
+    <t>Verify that user receives a notification if someone likes his comment</t>
+  </si>
+  <si>
+    <t>Jira id</t>
+  </si>
+  <si>
+    <t>OPQA-206</t>
+  </si>
+  <si>
+    <t>OPQA-207</t>
+  </si>
+  <si>
+    <t>OPQA-208</t>
+  </si>
+  <si>
+    <t>OPQA-209</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TestCase_F5</t>
+  </si>
+  <si>
+    <t>OPQA-877</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following  publishes a post</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>TestCase_F6</t>
+  </si>
+  <si>
+    <t>OPQA-213</t>
+  </si>
+  <si>
+    <t>Verify that user is able to receive notification when my friend is following some other user.</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when his follower comments on an article contained in his watchlist</t>
+  </si>
+  <si>
+    <t>OPQA-210</t>
+  </si>
+  <si>
+    <t>TestCase_F7</t>
+  </si>
+  <si>
     <t>Verify that user receives a notification when someone comments on an article contained in his watchlist</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification if someone likes his comment</t>
-  </si>
-  <si>
-    <t>Jira id</t>
-  </si>
-  <si>
-    <t>OPQA-206</t>
-  </si>
-  <si>
-    <t>OPQA-207</t>
-  </si>
-  <si>
-    <t>OPQA-208</t>
-  </si>
-  <si>
-    <t>OPQA-209</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>TestCase_F5</t>
-  </si>
-  <si>
-    <t>OPQA-877</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification when someone he is following  publishes a post</t>
-  </si>
-  <si>
-    <t>SKIP</t>
   </si>
 </sst>
 </file>
@@ -584,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -603,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -620,16 +641,16 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -637,16 +658,16 @@
         <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -654,16 +675,16 @@
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -671,33 +692,67 @@
         <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>TCID</t>
   </si>
@@ -170,38 +170,67 @@
     <t>Verify that user receives a notification when someone he is following comments on an article</t>
   </si>
   <si>
+    <t>Verify that user receives a notification if someone likes his comment</t>
+  </si>
+  <si>
+    <t>Jira id</t>
+  </si>
+  <si>
+    <t>OPQA-206</t>
+  </si>
+  <si>
+    <t>OPQA-207</t>
+  </si>
+  <si>
+    <t>OPQA-208</t>
+  </si>
+  <si>
+    <t>OPQA-209</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TestCase_F5</t>
+  </si>
+  <si>
+    <t>OPQA-877</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following  publishes a post</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>TestCase_F6</t>
+  </si>
+  <si>
+    <t>OPQA-213</t>
+  </si>
+  <si>
+    <t>Verify that user is able to receive notification when my friend is following some other user.</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when his follower comments on an article contained in his watchlist</t>
+  </si>
+  <si>
+    <t>OPQA-210</t>
+  </si>
+  <si>
+    <t>TestCase_F7</t>
+  </si>
+  <si>
     <t>Verify that user receives a notification when someone comments on an article contained in his watchlist</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification if someone likes his comment</t>
-  </si>
-  <si>
-    <t>Jira id</t>
-  </si>
-  <si>
-    <t>OPQA-206</t>
-  </si>
-  <si>
-    <t>OPQA-207</t>
-  </si>
-  <si>
-    <t>OPQA-208</t>
-  </si>
-  <si>
-    <t>OPQA-209</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -576,18 +605,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -595,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -612,16 +641,16 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -629,16 +658,16 @@
         <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -646,16 +675,16 @@
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -663,16 +692,67 @@
         <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>43</v>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -691,10 +771,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>TCID</t>
   </si>
@@ -212,19 +212,28 @@
     <t>Verify that user is able to receive notification when my friend is following some other user.</t>
   </si>
   <si>
+    <t>Verify that user receives a notification when his follower comments on an article contained in his watchlist</t>
+  </si>
+  <si>
+    <t>OPQA-210</t>
+  </si>
+  <si>
+    <t>TestCase_F7</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone comments on an article contained in his watchlist</t>
+  </si>
+  <si>
+    <t>Verify that user able to recevies a notification when other user commented on his post</t>
+  </si>
+  <si>
+    <t>OPQA-215</t>
+  </si>
+  <si>
+    <t>TestCase_F8</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification when his follower comments on an article contained in his watchlist</t>
-  </si>
-  <si>
-    <t>OPQA-210</t>
-  </si>
-  <si>
-    <t>TestCase_F7</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification when someone comments on an article contained in his watchlist</t>
   </si>
 </sst>
 </file>
@@ -605,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -650,7 +659,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -675,10 +684,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>42</v>
@@ -731,28 +740,45 @@
       <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>TCID</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>TestCase_F9</t>
+  </si>
+  <si>
+    <t>OPQA-216</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following user comments on a post</t>
   </si>
 </sst>
 </file>
@@ -614,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -778,6 +787,23 @@
         <v>42</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>57</v>
       </c>
     </row>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>TCID</t>
   </si>
@@ -212,19 +212,37 @@
     <t>Verify that user is able to receive notification when my friend is following some other user.</t>
   </si>
   <si>
+    <t>Verify that user receives a notification when his follower comments on an article contained in his watchlist</t>
+  </si>
+  <si>
+    <t>OPQA-210</t>
+  </si>
+  <si>
+    <t>TestCase_F7</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone comments on an article contained in his watchlist</t>
+  </si>
+  <si>
+    <t>Verify that user able to recevies a notification when other user commented on his post</t>
+  </si>
+  <si>
+    <t>OPQA-215</t>
+  </si>
+  <si>
+    <t>TestCase_F8</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>Verify that user receives a notification when his follower comments on an article contained in his watchlist</t>
-  </si>
-  <si>
-    <t>OPQA-210</t>
-  </si>
-  <si>
-    <t>TestCase_F7</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification when someone comments on an article contained in his watchlist</t>
+    <t>TestCase_F9</t>
+  </si>
+  <si>
+    <t>OPQA-216</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following user comments on a post</t>
   </si>
 </sst>
 </file>
@@ -605,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -650,7 +668,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -675,10 +693,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>42</v>
@@ -731,28 +749,62 @@
       <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
+      <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>TCID</t>
   </si>
@@ -243,6 +243,24 @@
   </si>
   <si>
     <t>Verify that user receives a notification when someone he is following user comments on a post</t>
+  </si>
+  <si>
+    <t>TestCase_F10</t>
+  </si>
+  <si>
+    <t>OPQA-217</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone comments on an post contained in his watchlist</t>
+  </si>
+  <si>
+    <t>TestCase_F11</t>
+  </si>
+  <si>
+    <t>OPQA-218</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification if someone likes his comment on a post</t>
   </si>
 </sst>
 </file>
@@ -623,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -804,6 +822,40 @@
         <v>42</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>57</v>
       </c>
     </row>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>TCID</t>
   </si>
@@ -170,38 +170,103 @@
     <t>Verify that user receives a notification when someone he is following comments on an article</t>
   </si>
   <si>
+    <t>Verify that user receives a notification if someone likes his comment</t>
+  </si>
+  <si>
+    <t>Jira id</t>
+  </si>
+  <si>
+    <t>OPQA-206</t>
+  </si>
+  <si>
+    <t>OPQA-207</t>
+  </si>
+  <si>
+    <t>OPQA-208</t>
+  </si>
+  <si>
+    <t>OPQA-209</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TestCase_F5</t>
+  </si>
+  <si>
+    <t>OPQA-877</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following  publishes a post</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>TestCase_F6</t>
+  </si>
+  <si>
+    <t>OPQA-213</t>
+  </si>
+  <si>
+    <t>Verify that user is able to receive notification when my friend is following some other user.</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when his follower comments on an article contained in his watchlist</t>
+  </si>
+  <si>
+    <t>OPQA-210</t>
+  </si>
+  <si>
+    <t>TestCase_F7</t>
+  </si>
+  <si>
     <t>Verify that user receives a notification when someone comments on an article contained in his watchlist</t>
   </si>
   <si>
-    <t>Verify that user receives a notification if someone likes his comment</t>
-  </si>
-  <si>
-    <t>Jira id</t>
-  </si>
-  <si>
-    <t>OPQA-206</t>
-  </si>
-  <si>
-    <t>OPQA-207</t>
-  </si>
-  <si>
-    <t>OPQA-208</t>
-  </si>
-  <si>
-    <t>OPQA-209</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>Verify that user able to recevies a notification when other user commented on his post</t>
+  </si>
+  <si>
+    <t>OPQA-215</t>
+  </si>
+  <si>
+    <t>TestCase_F8</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>TestCase_F9</t>
+  </si>
+  <si>
+    <t>OPQA-216</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following user comments on a post</t>
+  </si>
+  <si>
+    <t>TestCase_F10</t>
+  </si>
+  <si>
+    <t>OPQA-217</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone comments on an post contained in his watchlist</t>
+  </si>
+  <si>
+    <t>TestCase_F11</t>
+  </si>
+  <si>
+    <t>OPQA-218</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification if someone likes his comment on a post</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -576,18 +641,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -595,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -612,16 +677,16 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -629,16 +694,16 @@
         <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -646,16 +711,16 @@
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -663,16 +728,135 @@
         <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>43</v>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -691,10 +875,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>TCID</t>
   </si>
@@ -212,19 +212,55 @@
     <t>Verify that user is able to receive notification when my friend is following some other user.</t>
   </si>
   <si>
+    <t>Verify that user receives a notification when his follower comments on an article contained in his watchlist</t>
+  </si>
+  <si>
+    <t>OPQA-210</t>
+  </si>
+  <si>
+    <t>TestCase_F7</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone comments on an article contained in his watchlist</t>
+  </si>
+  <si>
+    <t>Verify that user able to recevies a notification when other user commented on his post</t>
+  </si>
+  <si>
+    <t>OPQA-215</t>
+  </si>
+  <si>
+    <t>TestCase_F8</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>Verify that user receives a notification when his follower comments on an article contained in his watchlist</t>
-  </si>
-  <si>
-    <t>OPQA-210</t>
-  </si>
-  <si>
-    <t>TestCase_F7</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification when someone comments on an article contained in his watchlist</t>
+    <t>TestCase_F9</t>
+  </si>
+  <si>
+    <t>OPQA-216</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following user comments on a post</t>
+  </si>
+  <si>
+    <t>TestCase_F10</t>
+  </si>
+  <si>
+    <t>OPQA-217</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone comments on an post contained in his watchlist</t>
+  </si>
+  <si>
+    <t>TestCase_F11</t>
+  </si>
+  <si>
+    <t>OPQA-218</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification if someone likes his comment on a post</t>
   </si>
 </sst>
 </file>
@@ -605,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -650,7 +686,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -675,10 +711,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>42</v>
@@ -731,28 +767,96 @@
       <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="67">
   <si>
     <t>TCID</t>
   </si>
@@ -267,6 +267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -649,10 +650,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -686,7 +687,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -839,7 +840,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -856,7 +857,7 @@
         <v>42</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -875,10 +876,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>TCID</t>
   </si>
@@ -233,41 +233,58 @@
     <t>TestCase_F8</t>
   </si>
   <si>
+    <t>TestCase_F9</t>
+  </si>
+  <si>
+    <t>OPQA-216</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following user comments on a post</t>
+  </si>
+  <si>
+    <t>TestCase_F10</t>
+  </si>
+  <si>
+    <t>OPQA-217</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone comments on an post contained in his watchlist</t>
+  </si>
+  <si>
+    <t>TestCase_F11</t>
+  </si>
+  <si>
+    <t>OPQA-218</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification if someone likes his comment on a post</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>TestCase_F9</t>
-  </si>
-  <si>
-    <t>OPQA-216</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification when someone he is following user comments on a post</t>
-  </si>
-  <si>
-    <t>TestCase_F10</t>
-  </si>
-  <si>
-    <t>OPQA-217</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification when someone comments on an post contained in his watchlist</t>
-  </si>
-  <si>
-    <t>TestCase_F11</t>
-  </si>
-  <si>
-    <t>OPQA-218</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification if someone likes his comment on a post</t>
+    <t>TestCase_F12</t>
+  </si>
+  <si>
+    <t>OPQA-1183</t>
+  </si>
+  <si>
+    <t>Verify that user is receiving notification when someone he is following created a public watch list. (single event notification)</t>
+  </si>
+  <si>
+    <t>TestCase_F13</t>
+  </si>
+  <si>
+    <t>Verify that user is receiving notification when someone he is following made an existing watch list from private to public. (single event notification)</t>
+  </si>
+  <si>
+    <t>OPQA-1184</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -285,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +312,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +351,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -342,7 +364,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,222 +667,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="135.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="3" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="3" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="7" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="7" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="7" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="7" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="3" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="B11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="B12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="3" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>46</v>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -876,108 +935,108 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="206.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="203.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="295.5" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="147" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="73.5" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="165.75" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="69.75" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>TCID</t>
   </si>
@@ -279,6 +279,15 @@
   </si>
   <si>
     <t>OPQA-1184</t>
+  </si>
+  <si>
+    <t>Verify that user is receiving notification when someone liked his post(aggregated notification)</t>
+  </si>
+  <si>
+    <t>TestCase_F14</t>
+  </si>
+  <si>
+    <t>OPQA-1013</t>
   </si>
 </sst>
 </file>
@@ -349,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -368,6 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -682,19 +692,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -899,7 +909,7 @@
         <v>42</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -916,6 +926,23 @@
         <v>42</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>66</v>
       </c>
     </row>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>TCID</t>
   </si>
@@ -233,41 +233,67 @@
     <t>TestCase_F8</t>
   </si>
   <si>
+    <t>TestCase_F9</t>
+  </si>
+  <si>
+    <t>OPQA-216</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following user comments on a post</t>
+  </si>
+  <si>
+    <t>TestCase_F10</t>
+  </si>
+  <si>
+    <t>OPQA-217</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone comments on an post contained in his watchlist</t>
+  </si>
+  <si>
+    <t>TestCase_F11</t>
+  </si>
+  <si>
+    <t>OPQA-218</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification if someone likes his comment on a post</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>TestCase_F9</t>
-  </si>
-  <si>
-    <t>OPQA-216</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification when someone he is following user comments on a post</t>
-  </si>
-  <si>
-    <t>TestCase_F10</t>
-  </si>
-  <si>
-    <t>OPQA-217</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification when someone comments on an post contained in his watchlist</t>
-  </si>
-  <si>
-    <t>TestCase_F11</t>
-  </si>
-  <si>
-    <t>OPQA-218</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification if someone likes his comment on a post</t>
+    <t>TestCase_F12</t>
+  </si>
+  <si>
+    <t>OPQA-1183</t>
+  </si>
+  <si>
+    <t>Verify that user is receiving notification when someone he is following created a public watch list. (single event notification)</t>
+  </si>
+  <si>
+    <t>TestCase_F13</t>
+  </si>
+  <si>
+    <t>Verify that user is receiving notification when someone he is following made an existing watch list from private to public. (single event notification)</t>
+  </si>
+  <si>
+    <t>OPQA-1184</t>
+  </si>
+  <si>
+    <t>Verify that user is receiving notification when someone liked his post(aggregated notification)</t>
+  </si>
+  <si>
+    <t>TestCase_F14</t>
+  </si>
+  <si>
+    <t>OPQA-1013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -285,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +321,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,9 +358,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -342,7 +373,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,222 +677,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="135.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>46</v>
+      <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -876,108 +962,108 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="206.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="203.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="295.5" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="147" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="73.5" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="165.75" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="69.75" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>TCID</t>
   </si>
@@ -288,6 +288,15 @@
   </si>
   <si>
     <t>OPQA-1013</t>
+  </si>
+  <si>
+    <t>TestCase_F15</t>
+  </si>
+  <si>
+    <t>OPQA-226</t>
+  </si>
+  <si>
+    <t>Verify that users should be able to select from a list of suggested topics and check selected topic is presented in users type ahead</t>
   </si>
 </sst>
 </file>
@@ -677,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -943,6 +952,23 @@
         <v>42</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>66</v>
       </c>
     </row>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>TCID</t>
   </si>
@@ -297,6 +297,16 @@
   </si>
   <si>
     <t>Verify that users should be able to select from a list of suggested topics and check selected topic is presented in users type ahead</t>
+  </si>
+  <si>
+    <t>TestCase_F16</t>
+  </si>
+  <si>
+    <t>OPQA-231,OPQA-1100</t>
+  </si>
+  <si>
+    <t>Verify that Trending now section include articles and posts and able to navigate from tending now section and 
+Verify that Maximum count on the trending list is 10</t>
   </si>
 </sst>
 </file>
@@ -686,15 +696,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="135.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -969,6 +980,23 @@
         <v>42</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30">
+      <c r="A17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>66</v>
       </c>
     </row>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>TCID</t>
   </si>
@@ -288,6 +288,25 @@
   </si>
   <si>
     <t>OPQA-1013</t>
+  </si>
+  <si>
+    <t>TestCase_F15</t>
+  </si>
+  <si>
+    <t>OPQA-226</t>
+  </si>
+  <si>
+    <t>Verify that users should be able to select from a list of suggested topics and check selected topic is presented in users type ahead</t>
+  </si>
+  <si>
+    <t>TestCase_F16</t>
+  </si>
+  <si>
+    <t>OPQA-231,OPQA-1100</t>
+  </si>
+  <si>
+    <t>Verify that Trending now section include articles and posts and able to navigate from tending now section and 
+Verify that Maximum count on the trending list is 10</t>
   </si>
 </sst>
 </file>
@@ -677,15 +696,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="135.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -943,6 +963,40 @@
         <v>42</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30">
+      <c r="A17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>66</v>
       </c>
     </row>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
   <si>
     <t>TCID</t>
   </si>
@@ -307,6 +307,15 @@
   <si>
     <t>Verify that Trending now section include articles and posts and able to navigate from tending now section and 
 Verify that Maximum count on the trending list is 10</t>
+  </si>
+  <si>
+    <t>TestCase_F17</t>
+  </si>
+  <si>
+    <t>OPQA-1098</t>
+  </si>
+  <si>
+    <t>Verify that Featured Post is at the top of event stream after login and that feature post should be top in post tab of trending section</t>
   </si>
 </sst>
 </file>
@@ -696,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -997,6 +1006,23 @@
         <v>42</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>66</v>
       </c>
     </row>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
   <si>
     <t>TCID</t>
   </si>
@@ -288,6 +288,34 @@
   </si>
   <si>
     <t>OPQA-1013</t>
+  </si>
+  <si>
+    <t>TestCase_F15</t>
+  </si>
+  <si>
+    <t>OPQA-226</t>
+  </si>
+  <si>
+    <t>Verify that users should be able to select from a list of suggested topics and check selected topic is presented in users type ahead</t>
+  </si>
+  <si>
+    <t>TestCase_F16</t>
+  </si>
+  <si>
+    <t>OPQA-231,OPQA-1100</t>
+  </si>
+  <si>
+    <t>Verify that Trending now section include articles and posts and able to navigate from tending now section and 
+Verify that Maximum count on the trending list is 10</t>
+  </si>
+  <si>
+    <t>TestCase_F17</t>
+  </si>
+  <si>
+    <t>OPQA-1098</t>
+  </si>
+  <si>
+    <t>Verify that Featured Post is at the top of event stream after login and that feature post should be top in post tab of trending section</t>
   </si>
 </sst>
 </file>
@@ -677,15 +705,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="135.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -943,6 +972,57 @@
         <v>42</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30">
+      <c r="A17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>66</v>
       </c>
     </row>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
   <si>
     <t>TCID</t>
   </si>
@@ -260,9 +260,6 @@
     <t>Verify that user receives a notification if someone likes his comment on a post</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>TestCase_F12</t>
   </si>
   <si>
@@ -316,6 +313,18 @@
   </si>
   <si>
     <t>Verify that Featured Post is at the top of event stream after login and that feature post should be top in post tab of trending section</t>
+  </si>
+  <si>
+    <t>TestCase_F18</t>
+  </si>
+  <si>
+    <t>OPQA-1099</t>
+  </si>
+  <si>
+    <t>Verify that Featured Post move down when new notification event occur</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -705,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -751,7 +760,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -926,13 +935,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>42</v>
@@ -943,13 +952,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>42</v>
@@ -960,13 +969,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>42</v>
@@ -977,13 +986,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>42</v>
@@ -994,13 +1003,13 @@
     </row>
     <row r="17" spans="1:5" ht="30">
       <c r="A17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>42</v>
@@ -1011,19 +1020,36 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>66</v>
+      <c r="B19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t>TCID</t>
   </si>
@@ -322,9 +322,6 @@
   </si>
   <si>
     <t>Verify that Featured Post move down when new notification event occur</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -717,7 +714,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -760,7 +757,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1049,7 +1046,7 @@
         <v>42</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="91">
   <si>
     <t>TCID</t>
   </si>
@@ -322,6 +322,18 @@
   </si>
   <si>
     <t>Verify that Featured Post move down when new notification event occur</t>
+  </si>
+  <si>
+    <t>Verify that follower of the article is able to start conversation from home page when some one commented on the article he is following.</t>
+  </si>
+  <si>
+    <t>OPQA-1012</t>
+  </si>
+  <si>
+    <t>TestCase_F19</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -711,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -757,7 +769,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1047,6 +1059,23 @@
       </c>
       <c r="E19" s="6" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
   <si>
     <t>TCID</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Verify that user receives a notification when someone he is following  publishes a post</t>
   </si>
   <si>
-    <t>SKIP</t>
-  </si>
-  <si>
     <t>TestCase_F6</t>
   </si>
   <si>
@@ -334,6 +331,27 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>TestCase_F20</t>
+  </si>
+  <si>
+    <t>OPQA-1011</t>
+  </si>
+  <si>
+    <t>Verify that follower of the post is able to start conversation from home page when some one commented on the post he is following.</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>Verify that author of the post is able to start conversation from home page when some one commented on his post.</t>
+  </si>
+  <si>
+    <t>TestCase_F21</t>
+  </si>
+  <si>
+    <t>OPQA-1010</t>
   </si>
 </sst>
 </file>
@@ -723,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -769,7 +787,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -786,7 +804,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -794,16 +812,16 @@
         <v>32</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -820,7 +838,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -837,245 +855,279 @@
         <v>42</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="D7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="D10" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="D11" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="D12" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="D13" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D14" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D16" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
       <c r="A17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D17" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D18" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D19" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
   <si>
     <t>TCID</t>
   </si>
@@ -358,7 +358,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -750,11 +749,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="135.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="135.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -788,7 +787,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1128,7 +1127,7 @@
         <v>42</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1147,10 +1146,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="4" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -744,7 +744,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
   <si>
     <t>TCID</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>OPQA-1010</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -818,7 +821,7 @@
         <v>49</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>93</v>
@@ -835,7 +838,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>93</v>
@@ -852,7 +855,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>93</v>
@@ -869,7 +872,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>93</v>
@@ -886,7 +889,7 @@
         <v>52</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>93</v>
@@ -903,7 +906,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>93</v>
@@ -920,7 +923,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>93</v>
@@ -937,7 +940,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>93</v>
@@ -954,7 +957,7 @@
         <v>64</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>93</v>
@@ -971,7 +974,7 @@
         <v>67</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>93</v>
@@ -988,7 +991,7 @@
         <v>69</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>93</v>
@@ -1005,7 +1008,7 @@
         <v>71</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>93</v>
@@ -1022,7 +1025,7 @@
         <v>76</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>93</v>
@@ -1039,7 +1042,7 @@
         <v>79</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>93</v>
@@ -1056,7 +1059,7 @@
         <v>82</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>93</v>
@@ -1073,7 +1076,7 @@
         <v>85</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>93</v>
@@ -1090,7 +1093,7 @@
         <v>86</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>93</v>
@@ -1107,7 +1110,7 @@
         <v>92</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>93</v>
@@ -1124,7 +1127,7 @@
         <v>94</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>89</v>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
   <si>
     <t>TCID</t>
   </si>
@@ -152,18 +152,6 @@
 2)Click on NOTES tab and verify that NOTES tab gets displayed with all the notes(if present).</t>
   </si>
   <si>
-    <t>TestCase_F1</t>
-  </si>
-  <si>
-    <t>TestCase_F2</t>
-  </si>
-  <si>
-    <t>TestCase_F3</t>
-  </si>
-  <si>
-    <t>TestCase_F4</t>
-  </si>
-  <si>
     <t>Verify that user receives a notification when he is followed by someone</t>
   </si>
   <si>
@@ -191,18 +179,12 @@
     <t>Y</t>
   </si>
   <si>
-    <t>TestCase_F5</t>
-  </si>
-  <si>
     <t>OPQA-877</t>
   </si>
   <si>
     <t>Verify that user receives a notification when someone he is following  publishes a post</t>
   </si>
   <si>
-    <t>TestCase_F6</t>
-  </si>
-  <si>
     <t>OPQA-213</t>
   </si>
   <si>
@@ -215,9 +197,6 @@
     <t>OPQA-210</t>
   </si>
   <si>
-    <t>TestCase_F7</t>
-  </si>
-  <si>
     <t>Verify that user receives a notification when someone comments on an article contained in his watchlist</t>
   </si>
   <si>
@@ -227,48 +206,30 @@
     <t>OPQA-215</t>
   </si>
   <si>
-    <t>TestCase_F8</t>
-  </si>
-  <si>
-    <t>TestCase_F9</t>
-  </si>
-  <si>
     <t>OPQA-216</t>
   </si>
   <si>
     <t>Verify that user receives a notification when someone he is following user comments on a post</t>
   </si>
   <si>
-    <t>TestCase_F10</t>
-  </si>
-  <si>
     <t>OPQA-217</t>
   </si>
   <si>
     <t>Verify that user receives a notification when someone comments on an post contained in his watchlist</t>
   </si>
   <si>
-    <t>TestCase_F11</t>
-  </si>
-  <si>
     <t>OPQA-218</t>
   </si>
   <si>
     <t>Verify that user receives a notification if someone likes his comment on a post</t>
   </si>
   <si>
-    <t>TestCase_F12</t>
-  </si>
-  <si>
     <t>OPQA-1183</t>
   </si>
   <si>
     <t>Verify that user is receiving notification when someone he is following created a public watch list. (single event notification)</t>
   </si>
   <si>
-    <t>TestCase_F13</t>
-  </si>
-  <si>
     <t>Verify that user is receiving notification when someone he is following made an existing watch list from private to public. (single event notification)</t>
   </si>
   <si>
@@ -278,22 +239,13 @@
     <t>Verify that user is receiving notification when someone liked his post(aggregated notification)</t>
   </si>
   <si>
-    <t>TestCase_F14</t>
-  </si>
-  <si>
     <t>OPQA-1013</t>
   </si>
   <si>
-    <t>TestCase_F15</t>
-  </si>
-  <si>
     <t>OPQA-226</t>
   </si>
   <si>
     <t>Verify that users should be able to select from a list of suggested topics and check selected topic is presented in users type ahead</t>
-  </si>
-  <si>
-    <t>TestCase_F16</t>
   </si>
   <si>
     <t>OPQA-231,OPQA-1100</t>
@@ -303,18 +255,12 @@
 Verify that Maximum count on the trending list is 10</t>
   </si>
   <si>
-    <t>TestCase_F17</t>
-  </si>
-  <si>
     <t>OPQA-1098</t>
   </si>
   <si>
     <t>Verify that Featured Post is at the top of event stream after login and that feature post should be top in post tab of trending section</t>
   </si>
   <si>
-    <t>TestCase_F18</t>
-  </si>
-  <si>
     <t>OPQA-1099</t>
   </si>
   <si>
@@ -327,15 +273,9 @@
     <t>OPQA-1012</t>
   </si>
   <si>
-    <t>TestCase_F19</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>TestCase_F20</t>
-  </si>
-  <si>
     <t>OPQA-1011</t>
   </si>
   <si>
@@ -348,13 +288,70 @@
     <t>Verify that author of the post is able to start conversation from home page when some one commented on his post.</t>
   </si>
   <si>
-    <t>TestCase_F21</t>
-  </si>
-  <si>
     <t>OPQA-1010</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Notifications001</t>
+  </si>
+  <si>
+    <t>Notifications002</t>
+  </si>
+  <si>
+    <t>Notifications003</t>
+  </si>
+  <si>
+    <t>Notifications004</t>
+  </si>
+  <si>
+    <t>Notifications005</t>
+  </si>
+  <si>
+    <t>Notifications006</t>
+  </si>
+  <si>
+    <t>Notifications007</t>
+  </si>
+  <si>
+    <t>Notifications008</t>
+  </si>
+  <si>
+    <t>Notifications009</t>
+  </si>
+  <si>
+    <t>Notifications010</t>
+  </si>
+  <si>
+    <t>Notifications011</t>
+  </si>
+  <si>
+    <t>Notifications012</t>
+  </si>
+  <si>
+    <t>Notifications013</t>
+  </si>
+  <si>
+    <t>Notifications014</t>
+  </si>
+  <si>
+    <t>Notifications015</t>
+  </si>
+  <si>
+    <t>Notifications016</t>
+  </si>
+  <si>
+    <t>Notifications017</t>
+  </si>
+  <si>
+    <t>Notifications018</t>
+  </si>
+  <si>
+    <t>Notifications019</t>
+  </si>
+  <si>
+    <t>Notifications020</t>
+  </si>
+  <si>
+    <t>Notifications021</t>
   </si>
 </sst>
 </file>
@@ -746,13 +743,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="135.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
@@ -764,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -778,359 +775,359 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
       <c r="A17" s="6" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/xls/F suite.xlsx
+++ b/src/test/resources/xls/F suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
   <si>
     <t>TCID</t>
   </si>
@@ -152,18 +152,6 @@
 2)Click on NOTES tab and verify that NOTES tab gets displayed with all the notes(if present).</t>
   </si>
   <si>
-    <t>TestCase_F1</t>
-  </si>
-  <si>
-    <t>TestCase_F2</t>
-  </si>
-  <si>
-    <t>TestCase_F3</t>
-  </si>
-  <si>
-    <t>TestCase_F4</t>
-  </si>
-  <si>
     <t>Verify that user receives a notification when he is followed by someone</t>
   </si>
   <si>
@@ -191,18 +179,12 @@
     <t>Y</t>
   </si>
   <si>
-    <t>TestCase_F5</t>
-  </si>
-  <si>
     <t>OPQA-877</t>
   </si>
   <si>
     <t>Verify that user receives a notification when someone he is following  publishes a post</t>
   </si>
   <si>
-    <t>TestCase_F6</t>
-  </si>
-  <si>
     <t>OPQA-213</t>
   </si>
   <si>
@@ -215,9 +197,6 @@
     <t>OPQA-210</t>
   </si>
   <si>
-    <t>TestCase_F7</t>
-  </si>
-  <si>
     <t>Verify that user receives a notification when someone comments on an article contained in his watchlist</t>
   </si>
   <si>
@@ -227,48 +206,30 @@
     <t>OPQA-215</t>
   </si>
   <si>
-    <t>TestCase_F8</t>
-  </si>
-  <si>
-    <t>TestCase_F9</t>
-  </si>
-  <si>
     <t>OPQA-216</t>
   </si>
   <si>
     <t>Verify that user receives a notification when someone he is following user comments on a post</t>
   </si>
   <si>
-    <t>TestCase_F10</t>
-  </si>
-  <si>
     <t>OPQA-217</t>
   </si>
   <si>
     <t>Verify that user receives a notification when someone comments on an post contained in his watchlist</t>
   </si>
   <si>
-    <t>TestCase_F11</t>
-  </si>
-  <si>
     <t>OPQA-218</t>
   </si>
   <si>
     <t>Verify that user receives a notification if someone likes his comment on a post</t>
   </si>
   <si>
-    <t>TestCase_F12</t>
-  </si>
-  <si>
     <t>OPQA-1183</t>
   </si>
   <si>
     <t>Verify that user is receiving notification when someone he is following created a public watch list. (single event notification)</t>
   </si>
   <si>
-    <t>TestCase_F13</t>
-  </si>
-  <si>
     <t>Verify that user is receiving notification when someone he is following made an existing watch list from private to public. (single event notification)</t>
   </si>
   <si>
@@ -278,22 +239,13 @@
     <t>Verify that user is receiving notification when someone liked his post(aggregated notification)</t>
   </si>
   <si>
-    <t>TestCase_F14</t>
-  </si>
-  <si>
     <t>OPQA-1013</t>
   </si>
   <si>
-    <t>TestCase_F15</t>
-  </si>
-  <si>
     <t>OPQA-226</t>
   </si>
   <si>
     <t>Verify that users should be able to select from a list of suggested topics and check selected topic is presented in users type ahead</t>
-  </si>
-  <si>
-    <t>TestCase_F16</t>
   </si>
   <si>
     <t>OPQA-231,OPQA-1100</t>
@@ -303,18 +255,12 @@
 Verify that Maximum count on the trending list is 10</t>
   </si>
   <si>
-    <t>TestCase_F17</t>
-  </si>
-  <si>
     <t>OPQA-1098</t>
   </si>
   <si>
     <t>Verify that Featured Post is at the top of event stream after login and that feature post should be top in post tab of trending section</t>
   </si>
   <si>
-    <t>TestCase_F18</t>
-  </si>
-  <si>
     <t>OPQA-1099</t>
   </si>
   <si>
@@ -327,15 +273,9 @@
     <t>OPQA-1012</t>
   </si>
   <si>
-    <t>TestCase_F19</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>TestCase_F20</t>
-  </si>
-  <si>
     <t>OPQA-1011</t>
   </si>
   <si>
@@ -348,13 +288,70 @@
     <t>Verify that author of the post is able to start conversation from home page when some one commented on his post.</t>
   </si>
   <si>
-    <t>TestCase_F21</t>
-  </si>
-  <si>
     <t>OPQA-1010</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Notifications001</t>
+  </si>
+  <si>
+    <t>Notifications002</t>
+  </si>
+  <si>
+    <t>Notifications003</t>
+  </si>
+  <si>
+    <t>Notifications004</t>
+  </si>
+  <si>
+    <t>Notifications005</t>
+  </si>
+  <si>
+    <t>Notifications006</t>
+  </si>
+  <si>
+    <t>Notifications007</t>
+  </si>
+  <si>
+    <t>Notifications008</t>
+  </si>
+  <si>
+    <t>Notifications009</t>
+  </si>
+  <si>
+    <t>Notifications010</t>
+  </si>
+  <si>
+    <t>Notifications011</t>
+  </si>
+  <si>
+    <t>Notifications012</t>
+  </si>
+  <si>
+    <t>Notifications013</t>
+  </si>
+  <si>
+    <t>Notifications014</t>
+  </si>
+  <si>
+    <t>Notifications015</t>
+  </si>
+  <si>
+    <t>Notifications016</t>
+  </si>
+  <si>
+    <t>Notifications017</t>
+  </si>
+  <si>
+    <t>Notifications018</t>
+  </si>
+  <si>
+    <t>Notifications019</t>
+  </si>
+  <si>
+    <t>Notifications020</t>
+  </si>
+  <si>
+    <t>Notifications021</t>
   </si>
 </sst>
 </file>
@@ -746,13 +743,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="135.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
@@ -764,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -778,359 +775,359 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
       <c r="A17" s="6" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
